--- a/Code/Results/Cases/Case_4_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019966053625351</v>
+        <v>1.060748854419377</v>
       </c>
       <c r="D2">
-        <v>1.037326227662502</v>
+        <v>1.06224691156679</v>
       </c>
       <c r="E2">
-        <v>1.037452389511728</v>
+        <v>1.073177383261232</v>
       </c>
       <c r="F2">
-        <v>1.043711186822778</v>
+        <v>1.077839669611633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05546422835395</v>
+        <v>1.04509808180284</v>
       </c>
       <c r="J2">
-        <v>1.041565552952376</v>
+        <v>1.065728096918557</v>
       </c>
       <c r="K2">
-        <v>1.048288933656724</v>
+        <v>1.064968777257193</v>
       </c>
       <c r="L2">
-        <v>1.048413492612313</v>
+        <v>1.075869935488028</v>
       </c>
       <c r="M2">
-        <v>1.054593378046588</v>
+        <v>1.080519913913896</v>
       </c>
       <c r="N2">
-        <v>1.016656610104235</v>
+        <v>1.025499034381038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026838289594659</v>
+        <v>1.06214398129997</v>
       </c>
       <c r="D3">
-        <v>1.042630874297678</v>
+        <v>1.063326797455164</v>
       </c>
       <c r="E3">
-        <v>1.043809592006479</v>
+        <v>1.07451834757054</v>
       </c>
       <c r="F3">
-        <v>1.049987397211566</v>
+        <v>1.079159149565894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05767251300393</v>
+        <v>1.045434359459927</v>
       </c>
       <c r="J3">
-        <v>1.046623125400698</v>
+        <v>1.066774868218241</v>
       </c>
       <c r="K3">
-        <v>1.052745863398151</v>
+        <v>1.065862775052812</v>
       </c>
       <c r="L3">
-        <v>1.053911004265065</v>
+        <v>1.077026495594344</v>
       </c>
       <c r="M3">
-        <v>1.060018266279996</v>
+        <v>1.08165593958843</v>
       </c>
       <c r="N3">
-        <v>1.018431402468957</v>
+        <v>1.025858558975796</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031163352816742</v>
+        <v>1.06304591947832</v>
       </c>
       <c r="D4">
-        <v>1.045970500599588</v>
+        <v>1.064024558777395</v>
       </c>
       <c r="E4">
-        <v>1.047815990166541</v>
+        <v>1.075385552562822</v>
       </c>
       <c r="F4">
-        <v>1.053942526497679</v>
+        <v>1.080012380850949</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059046809732356</v>
+        <v>1.045649826885242</v>
       </c>
       <c r="J4">
-        <v>1.049802147395613</v>
+        <v>1.067450927782097</v>
       </c>
       <c r="K4">
-        <v>1.055544040223646</v>
+        <v>1.066439658675902</v>
       </c>
       <c r="L4">
-        <v>1.057369637551995</v>
+        <v>1.077773832541324</v>
       </c>
       <c r="M4">
-        <v>1.063430748248455</v>
+        <v>1.082389911639734</v>
       </c>
       <c r="N4">
-        <v>1.019545841443476</v>
+        <v>1.026090497576959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032953959923547</v>
+        <v>1.063424906922157</v>
       </c>
       <c r="D5">
-        <v>1.047353306165995</v>
+        <v>1.064317661703892</v>
       </c>
       <c r="E5">
-        <v>1.04947591503762</v>
+        <v>1.075750012378138</v>
       </c>
       <c r="F5">
-        <v>1.055581144473372</v>
+        <v>1.080370948742065</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059611995988058</v>
+        <v>1.0457399013949</v>
       </c>
       <c r="J5">
-        <v>1.051117274343725</v>
+        <v>1.067734842066924</v>
       </c>
       <c r="K5">
-        <v>1.05670079955325</v>
+        <v>1.066681801876509</v>
       </c>
       <c r="L5">
-        <v>1.05880117546378</v>
+        <v>1.078087768702679</v>
       </c>
       <c r="M5">
-        <v>1.064843064651418</v>
+        <v>1.082698210450356</v>
       </c>
       <c r="N5">
-        <v>1.020006583481923</v>
+        <v>1.026187838523082</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033253030697231</v>
+        <v>1.063488529730098</v>
       </c>
       <c r="D6">
-        <v>1.04758427282917</v>
+        <v>1.064366861219718</v>
       </c>
       <c r="E6">
-        <v>1.049753230524393</v>
+        <v>1.075811200259109</v>
       </c>
       <c r="F6">
-        <v>1.055854896179723</v>
+        <v>1.080431146319158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059706170256115</v>
+        <v>1.045754995545265</v>
       </c>
       <c r="J6">
-        <v>1.051336868434594</v>
+        <v>1.067782494958414</v>
       </c>
       <c r="K6">
-        <v>1.056893901436924</v>
+        <v>1.066722436655787</v>
       </c>
       <c r="L6">
-        <v>1.059040250795743</v>
+        <v>1.078140465739772</v>
       </c>
       <c r="M6">
-        <v>1.065078922618728</v>
+        <v>1.082749959848061</v>
       </c>
       <c r="N6">
-        <v>1.020083498667998</v>
+        <v>1.026204172789195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031187385748002</v>
+        <v>1.063050984257505</v>
       </c>
       <c r="D7">
-        <v>1.045989059578066</v>
+        <v>1.06402847615669</v>
       </c>
       <c r="E7">
-        <v>1.047838264273441</v>
+        <v>1.075390422932652</v>
       </c>
       <c r="F7">
-        <v>1.053964514964808</v>
+        <v>1.080017172561091</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059054410521099</v>
+        <v>1.045651032459928</v>
       </c>
       <c r="J7">
-        <v>1.049819802662581</v>
+        <v>1.067454722638002</v>
       </c>
       <c r="K7">
-        <v>1.055559572703749</v>
+        <v>1.066442895689892</v>
       </c>
       <c r="L7">
-        <v>1.057388852684769</v>
+        <v>1.077778028327322</v>
       </c>
       <c r="M7">
-        <v>1.063449705859444</v>
+        <v>1.082394032173015</v>
       </c>
       <c r="N7">
-        <v>1.019552027962231</v>
+        <v>1.026091798902605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022314699651597</v>
+        <v>1.06122051300592</v>
       </c>
       <c r="D8">
-        <v>1.03913883822243</v>
+        <v>1.062612072175356</v>
       </c>
       <c r="E8">
-        <v>1.03962382330123</v>
+        <v>1.073630671887644</v>
       </c>
       <c r="F8">
-        <v>1.045854996867089</v>
+        <v>1.078285712285573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056222153033205</v>
+        <v>1.045212169450198</v>
       </c>
       <c r="J8">
-        <v>1.043294824263852</v>
+        <v>1.066082123396977</v>
       </c>
       <c r="K8">
-        <v>1.049813516026011</v>
+        <v>1.065271239370365</v>
       </c>
       <c r="L8">
-        <v>1.050292536833163</v>
+        <v>1.076261016722597</v>
       </c>
       <c r="M8">
-        <v>1.056447691652075</v>
+        <v>1.080904071456911</v>
       </c>
       <c r="N8">
-        <v>1.017263671539004</v>
+        <v>1.02562068251487</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005673928079096</v>
+        <v>1.057988634559585</v>
       </c>
       <c r="D9">
-        <v>1.026305164883829</v>
+        <v>1.060108426396481</v>
       </c>
       <c r="E9">
-        <v>1.024265213682684</v>
+        <v>1.070525852604753</v>
       </c>
       <c r="F9">
-        <v>1.030691289648561</v>
+        <v>1.075230201729793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050788185107039</v>
+        <v>1.04442249697978</v>
       </c>
       <c r="J9">
-        <v>1.031027904106131</v>
+        <v>1.06365354468553</v>
       </c>
       <c r="K9">
-        <v>1.038985403796528</v>
+        <v>1.063194314277673</v>
       </c>
       <c r="L9">
-        <v>1.036976500694447</v>
+        <v>1.073579768605794</v>
       </c>
       <c r="M9">
-        <v>1.043305301462297</v>
+        <v>1.078269901074075</v>
       </c>
       <c r="N9">
-        <v>1.012953187885022</v>
+        <v>1.024785124336948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9937891551110095</v>
+        <v>1.055829480541024</v>
       </c>
       <c r="D10">
-        <v>1.017156391094471</v>
+        <v>1.058433933930044</v>
       </c>
       <c r="E10">
-        <v>1.013333912304272</v>
+        <v>1.068453100305887</v>
       </c>
       <c r="F10">
-        <v>1.019898700407714</v>
+        <v>1.073189966876898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04682889353987</v>
+        <v>1.043884988596998</v>
       </c>
       <c r="J10">
-        <v>1.022251377117459</v>
+        <v>1.062027641261956</v>
       </c>
       <c r="K10">
-        <v>1.031222640038415</v>
+        <v>1.061801248081167</v>
       </c>
       <c r="L10">
-        <v>1.027466521134802</v>
+        <v>1.071786618724033</v>
       </c>
       <c r="M10">
-        <v>1.033917737741192</v>
+        <v>1.076507748414759</v>
       </c>
       <c r="N10">
-        <v>1.009864709502084</v>
+        <v>1.024224395479185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884257624045871</v>
+        <v>1.054893392912321</v>
       </c>
       <c r="D11">
-        <v>1.013033626635833</v>
+        <v>1.057707540215316</v>
       </c>
       <c r="E11">
-        <v>1.008411129863791</v>
+        <v>1.067554839709766</v>
       </c>
       <c r="F11">
-        <v>1.015038601103014</v>
+        <v>1.072305704708891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04502468203403</v>
+        <v>1.043649601183944</v>
       </c>
       <c r="J11">
-        <v>1.018288098105541</v>
+        <v>1.06132193566563</v>
       </c>
       <c r="K11">
-        <v>1.02771386361978</v>
+        <v>1.061195992735054</v>
       </c>
       <c r="L11">
-        <v>1.023176148894275</v>
+        <v>1.071008775243802</v>
       </c>
       <c r="M11">
-        <v>1.029682376805816</v>
+        <v>1.075743236880316</v>
       </c>
       <c r="N11">
-        <v>1.008469253708258</v>
+        <v>1.023980703581787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9863980504888445</v>
+        <v>1.054545508236429</v>
       </c>
       <c r="D12">
-        <v>1.011476020875724</v>
+        <v>1.057437522238343</v>
       </c>
       <c r="E12">
-        <v>1.00655167794104</v>
+        <v>1.067221068977438</v>
       </c>
       <c r="F12">
-        <v>1.013202879238342</v>
+        <v>1.071977121507901</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044340059530149</v>
+        <v>1.043561769227192</v>
       </c>
       <c r="J12">
-        <v>1.016789437272901</v>
+        <v>1.061059548880696</v>
       </c>
       <c r="K12">
-        <v>1.026386612301505</v>
+        <v>1.060970862795412</v>
       </c>
       <c r="L12">
-        <v>1.021554425433578</v>
+        <v>1.070719635191966</v>
       </c>
       <c r="M12">
-        <v>1.028081430160456</v>
+        <v>1.0754590355298</v>
       </c>
       <c r="N12">
-        <v>1.007941492384028</v>
+        <v>1.023890050134534</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9868346583920594</v>
+        <v>1.054620138921854</v>
       </c>
       <c r="D13">
-        <v>1.011811354044018</v>
+        <v>1.057495451255312</v>
       </c>
       <c r="E13">
-        <v>1.006951977943913</v>
+        <v>1.067292669293174</v>
       </c>
       <c r="F13">
-        <v>1.01359806791526</v>
+        <v>1.072047609625463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044487584359048</v>
+        <v>1.043580627542177</v>
       </c>
       <c r="J13">
-        <v>1.017112140624948</v>
+        <v>1.061115843401236</v>
       </c>
       <c r="K13">
-        <v>1.026672426263705</v>
+        <v>1.061019168066852</v>
       </c>
       <c r="L13">
-        <v>1.021903599372113</v>
+        <v>1.070781666484587</v>
       </c>
       <c r="M13">
-        <v>1.028426131137021</v>
+        <v>1.075520008057102</v>
       </c>
       <c r="N13">
-        <v>1.008055137607083</v>
+        <v>1.023909501756353</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9882588933356853</v>
+        <v>1.05486464036327</v>
       </c>
       <c r="D14">
-        <v>1.012905421859253</v>
+        <v>1.057685224607216</v>
       </c>
       <c r="E14">
-        <v>1.008258072745537</v>
+        <v>1.067527252526479</v>
       </c>
       <c r="F14">
-        <v>1.01488749607243</v>
+        <v>1.07227854657448</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044968391841799</v>
+        <v>1.043642349107148</v>
       </c>
       <c r="J14">
-        <v>1.018164772010353</v>
+        <v>1.061300251944499</v>
       </c>
       <c r="K14">
-        <v>1.027604651941847</v>
+        <v>1.061177389791199</v>
       </c>
       <c r="L14">
-        <v>1.023042683195732</v>
+        <v>1.070984879234877</v>
       </c>
       <c r="M14">
-        <v>1.029550621262039</v>
+        <v>1.075719749377984</v>
       </c>
       <c r="N14">
-        <v>1.008425825402983</v>
+        <v>1.023973212909893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9891316143312991</v>
+        <v>1.055015261737649</v>
       </c>
       <c r="D15">
-        <v>1.013575974111179</v>
+        <v>1.05780212322452</v>
       </c>
       <c r="E15">
-        <v>1.009058626725905</v>
+        <v>1.067671771383926</v>
       </c>
       <c r="F15">
-        <v>1.015677842092574</v>
+        <v>1.072420817236998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045262686612098</v>
+        <v>1.043680324936633</v>
       </c>
       <c r="J15">
-        <v>1.018809753497891</v>
+        <v>1.061413838048212</v>
       </c>
       <c r="K15">
-        <v>1.028175798391761</v>
+        <v>1.061274834084554</v>
       </c>
       <c r="L15">
-        <v>1.02374071903042</v>
+        <v>1.071110056783038</v>
       </c>
       <c r="M15">
-        <v>1.03023971226137</v>
+        <v>1.075842786295915</v>
       </c>
       <c r="N15">
-        <v>1.00865294708454</v>
+        <v>1.024012449469321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9941402916728154</v>
+        <v>1.055891580664584</v>
       </c>
       <c r="D16">
-        <v>1.01742644207687</v>
+        <v>1.058482114016462</v>
       </c>
       <c r="E16">
-        <v>1.013656426999595</v>
+        <v>1.068512698794529</v>
       </c>
       <c r="F16">
-        <v>1.020217114605162</v>
+        <v>1.073248634627683</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046946661028035</v>
+        <v>1.043900554673004</v>
       </c>
       <c r="J16">
-        <v>1.022510804538704</v>
+        <v>1.062074440900766</v>
       </c>
       <c r="K16">
-        <v>1.031452251847246</v>
+        <v>1.061841373436791</v>
       </c>
       <c r="L16">
-        <v>1.027747445014328</v>
+        <v>1.071838211814117</v>
       </c>
       <c r="M16">
-        <v>1.034195056396604</v>
+        <v>1.076558454823188</v>
       </c>
       <c r="N16">
-        <v>1.009956039231482</v>
+        <v>1.024240549589027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.997222023544622</v>
+        <v>1.056440957793888</v>
       </c>
       <c r="D17">
-        <v>1.019797219184158</v>
+        <v>1.058908296367651</v>
       </c>
       <c r="E17">
-        <v>1.016488141556196</v>
+        <v>1.069039987460083</v>
       </c>
       <c r="F17">
-        <v>1.02301285302698</v>
+        <v>1.073767677945398</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04797828129153</v>
+        <v>1.044037990342848</v>
       </c>
       <c r="J17">
-        <v>1.02478737545789</v>
+        <v>1.062488367298101</v>
       </c>
       <c r="K17">
-        <v>1.033466812616309</v>
+        <v>1.062196197778074</v>
       </c>
       <c r="L17">
-        <v>1.03021312085978</v>
+        <v>1.072294586945261</v>
       </c>
       <c r="M17">
-        <v>1.036629066408759</v>
+        <v>1.077006973497808</v>
       </c>
       <c r="N17">
-        <v>1.010757407307313</v>
+        <v>1.024383390861576</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9989987995863173</v>
+        <v>1.056761288681171</v>
       </c>
       <c r="D18">
-        <v>1.021164638071747</v>
+        <v>1.059156753489331</v>
       </c>
       <c r="E18">
-        <v>1.018121732519031</v>
+        <v>1.069347474446021</v>
       </c>
       <c r="F18">
-        <v>1.024625708556393</v>
+        <v>1.074070347650379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048571413128004</v>
+        <v>1.044117899364046</v>
       </c>
       <c r="J18">
-        <v>1.026099684499857</v>
+        <v>1.06272964187315</v>
       </c>
       <c r="K18">
-        <v>1.03462777599768</v>
+        <v>1.062402963394917</v>
       </c>
       <c r="L18">
-        <v>1.031634824759163</v>
+        <v>1.072560648272031</v>
       </c>
       <c r="M18">
-        <v>1.038032490450653</v>
+        <v>1.077268443586997</v>
       </c>
       <c r="N18">
-        <v>1.011219274540325</v>
+        <v>1.024466621726196</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.999601197321021</v>
+        <v>1.05687049449894</v>
       </c>
       <c r="D19">
-        <v>1.021628334828707</v>
+        <v>1.059241449371782</v>
       </c>
       <c r="E19">
-        <v>1.018675744498328</v>
+        <v>1.06945230756653</v>
       </c>
       <c r="F19">
-        <v>1.025172690994175</v>
+        <v>1.074173536855376</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048772225449917</v>
+        <v>1.044145103089666</v>
       </c>
       <c r="J19">
-        <v>1.026544564009536</v>
+        <v>1.062811882966138</v>
       </c>
       <c r="K19">
-        <v>1.0350212944644</v>
+        <v>1.062473431743301</v>
       </c>
       <c r="L19">
-        <v>1.032116855208316</v>
+        <v>1.072651345615001</v>
       </c>
       <c r="M19">
-        <v>1.038508319027902</v>
+        <v>1.077357573956394</v>
       </c>
       <c r="N19">
-        <v>1.011375836536477</v>
+        <v>1.024494986747215</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9968935484432987</v>
+        <v>1.056382026403594</v>
       </c>
       <c r="D20">
-        <v>1.019544465411394</v>
+        <v>1.058862584284209</v>
       </c>
       <c r="E20">
-        <v>1.016186214361997</v>
+        <v>1.068983421815642</v>
       </c>
       <c r="F20">
-        <v>1.022714759631454</v>
+        <v>1.073711997765438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047868493821871</v>
+        <v>1.044023271171343</v>
       </c>
       <c r="J20">
-        <v>1.024544746030978</v>
+        <v>1.062443973668245</v>
       </c>
       <c r="K20">
-        <v>1.033252139541248</v>
+        <v>1.062158148929823</v>
       </c>
       <c r="L20">
-        <v>1.029950297010102</v>
+        <v>1.072245636164399</v>
       </c>
       <c r="M20">
-        <v>1.036369620034692</v>
+        <v>1.076958866539072</v>
       </c>
       <c r="N20">
-        <v>1.010672007668487</v>
+        <v>1.024368074253674</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9878404966931599</v>
+        <v>1.054792645800021</v>
       </c>
       <c r="D21">
-        <v>1.012583987360097</v>
+        <v>1.057629346717958</v>
       </c>
       <c r="E21">
-        <v>1.007874334783558</v>
+        <v>1.067458176872713</v>
       </c>
       <c r="F21">
-        <v>1.014508653226694</v>
+        <v>1.072210544993294</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044827213445872</v>
+        <v>1.043624184660208</v>
       </c>
       <c r="J21">
-        <v>1.017855548008249</v>
+        <v>1.061245955333112</v>
       </c>
       <c r="K21">
-        <v>1.027330810819154</v>
+        <v>1.061130806053725</v>
       </c>
       <c r="L21">
-        <v>1.022708045511017</v>
+        <v>1.070925044097071</v>
       </c>
       <c r="M21">
-        <v>1.029220271219403</v>
+        <v>1.075660936857657</v>
       </c>
       <c r="N21">
-        <v>1.008316933299513</v>
+        <v>1.023954455312226</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.981941352097816</v>
+        <v>1.053792294504388</v>
       </c>
       <c r="D22">
-        <v>1.008054748932454</v>
+        <v>1.056852784975974</v>
       </c>
       <c r="E22">
-        <v>1.002468051408502</v>
+        <v>1.066498516951738</v>
       </c>
       <c r="F22">
-        <v>1.0091714901998</v>
+        <v>1.071265774193293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042830826754471</v>
+        <v>1.043370956229322</v>
       </c>
       <c r="J22">
-        <v>1.013495141536225</v>
+        <v>1.060491228705059</v>
       </c>
       <c r="K22">
-        <v>1.023468310814176</v>
+        <v>1.060483072866789</v>
       </c>
       <c r="L22">
-        <v>1.017990773760893</v>
+        <v>1.070093493111828</v>
       </c>
       <c r="M22">
-        <v>1.024563421596869</v>
+        <v>1.074843557294713</v>
       </c>
       <c r="N22">
-        <v>1.006781257560688</v>
+        <v>1.02369361247188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9850892875507496</v>
+        <v>1.054322700623438</v>
       </c>
       <c r="D23">
-        <v>1.010471007338484</v>
+        <v>1.057264567752611</v>
       </c>
       <c r="E23">
-        <v>1.005352007537968</v>
+        <v>1.067007316698387</v>
       </c>
       <c r="F23">
-        <v>1.012018536619929</v>
+        <v>1.071766687504105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043897484056955</v>
+        <v>1.043505416600109</v>
       </c>
       <c r="J23">
-        <v>1.015822078433744</v>
+        <v>1.060891465702408</v>
       </c>
       <c r="K23">
-        <v>1.025529772374187</v>
+        <v>1.060826620426958</v>
       </c>
       <c r="L23">
-        <v>1.020507808230345</v>
+        <v>1.070534433242217</v>
       </c>
       <c r="M23">
-        <v>1.02704821904041</v>
+        <v>1.07527699216392</v>
       </c>
       <c r="N23">
-        <v>1.007600810510332</v>
+        <v>1.023831964973168</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9970420361008454</v>
+        <v>1.056408655306347</v>
       </c>
       <c r="D24">
-        <v>1.019658721451773</v>
+        <v>1.058883240001888</v>
       </c>
       <c r="E24">
-        <v>1.016322698018707</v>
+        <v>1.069008981616419</v>
       </c>
       <c r="F24">
-        <v>1.022849510194536</v>
+        <v>1.073737157487387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04791812854261</v>
+        <v>1.044029922918831</v>
       </c>
       <c r="J24">
-        <v>1.024654427809625</v>
+        <v>1.062464033738042</v>
       </c>
       <c r="K24">
-        <v>1.033349184491623</v>
+        <v>1.062175342176369</v>
       </c>
       <c r="L24">
-        <v>1.030069106571401</v>
+        <v>1.072267755330761</v>
       </c>
       <c r="M24">
-        <v>1.036486902875219</v>
+        <v>1.076980604445431</v>
       </c>
       <c r="N24">
-        <v>1.010710613211305</v>
+        <v>1.024374995435258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010106247596906</v>
+        <v>1.058824936007658</v>
       </c>
       <c r="D25">
-        <v>1.029721123099863</v>
+        <v>1.060756616718505</v>
       </c>
       <c r="E25">
-        <v>1.0283499937423</v>
+        <v>1.071329011338655</v>
       </c>
       <c r="F25">
-        <v>1.034724299980512</v>
+        <v>1.076020676300149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05224925601079</v>
+        <v>1.044628590173161</v>
       </c>
       <c r="J25">
-        <v>1.034298218119811</v>
+        <v>1.064282582849619</v>
       </c>
       <c r="K25">
-        <v>1.041874934028753</v>
+        <v>1.063732726061513</v>
       </c>
       <c r="L25">
-        <v>1.040523594504976</v>
+        <v>1.074273915445908</v>
       </c>
       <c r="M25">
-        <v>1.046806461687139</v>
+        <v>1.078951946177599</v>
       </c>
       <c r="N25">
-        <v>1.014103201633741</v>
+        <v>1.025001781724772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060748854419377</v>
+        <v>1.019966053625351</v>
       </c>
       <c r="D2">
-        <v>1.06224691156679</v>
+        <v>1.037326227662501</v>
       </c>
       <c r="E2">
-        <v>1.073177383261232</v>
+        <v>1.037452389511727</v>
       </c>
       <c r="F2">
-        <v>1.077839669611633</v>
+        <v>1.043711186822777</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04509808180284</v>
+        <v>1.055464228353949</v>
       </c>
       <c r="J2">
-        <v>1.065728096918557</v>
+        <v>1.041565552952375</v>
       </c>
       <c r="K2">
-        <v>1.064968777257193</v>
+        <v>1.048288933656723</v>
       </c>
       <c r="L2">
-        <v>1.075869935488028</v>
+        <v>1.048413492612312</v>
       </c>
       <c r="M2">
-        <v>1.080519913913896</v>
+        <v>1.054593378046587</v>
       </c>
       <c r="N2">
-        <v>1.025499034381038</v>
+        <v>1.016656610104235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.06214398129997</v>
+        <v>1.026838289594657</v>
       </c>
       <c r="D3">
-        <v>1.063326797455164</v>
+        <v>1.042630874297676</v>
       </c>
       <c r="E3">
-        <v>1.07451834757054</v>
+        <v>1.043809592006477</v>
       </c>
       <c r="F3">
-        <v>1.079159149565894</v>
+        <v>1.049987397211564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045434359459927</v>
+        <v>1.05767251300393</v>
       </c>
       <c r="J3">
-        <v>1.066774868218241</v>
+        <v>1.046623125400696</v>
       </c>
       <c r="K3">
-        <v>1.065862775052812</v>
+        <v>1.052745863398149</v>
       </c>
       <c r="L3">
-        <v>1.077026495594344</v>
+        <v>1.053911004265063</v>
       </c>
       <c r="M3">
-        <v>1.08165593958843</v>
+        <v>1.060018266279995</v>
       </c>
       <c r="N3">
-        <v>1.025858558975796</v>
+        <v>1.018431402468956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06304591947832</v>
+        <v>1.031163352816739</v>
       </c>
       <c r="D4">
-        <v>1.064024558777395</v>
+        <v>1.045970500599586</v>
       </c>
       <c r="E4">
-        <v>1.075385552562822</v>
+        <v>1.047815990166539</v>
       </c>
       <c r="F4">
-        <v>1.080012380850949</v>
+        <v>1.053942526497677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045649826885242</v>
+        <v>1.059046809732354</v>
       </c>
       <c r="J4">
-        <v>1.067450927782097</v>
+        <v>1.049802147395611</v>
       </c>
       <c r="K4">
-        <v>1.066439658675902</v>
+        <v>1.055544040223644</v>
       </c>
       <c r="L4">
-        <v>1.077773832541324</v>
+        <v>1.057369637551993</v>
       </c>
       <c r="M4">
-        <v>1.082389911639734</v>
+        <v>1.063430748248453</v>
       </c>
       <c r="N4">
-        <v>1.026090497576959</v>
+        <v>1.019545841443475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063424906922157</v>
+        <v>1.032953959923546</v>
       </c>
       <c r="D5">
-        <v>1.064317661703892</v>
+        <v>1.047353306165995</v>
       </c>
       <c r="E5">
-        <v>1.075750012378138</v>
+        <v>1.04947591503762</v>
       </c>
       <c r="F5">
-        <v>1.080370948742065</v>
+        <v>1.055581144473371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0457399013949</v>
+        <v>1.059611995988058</v>
       </c>
       <c r="J5">
-        <v>1.067734842066924</v>
+        <v>1.051117274343724</v>
       </c>
       <c r="K5">
-        <v>1.066681801876509</v>
+        <v>1.05670079955325</v>
       </c>
       <c r="L5">
-        <v>1.078087768702679</v>
+        <v>1.05880117546378</v>
       </c>
       <c r="M5">
-        <v>1.082698210450356</v>
+        <v>1.064843064651417</v>
       </c>
       <c r="N5">
-        <v>1.026187838523082</v>
+        <v>1.020006583481923</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063488529730098</v>
+        <v>1.03325303069723</v>
       </c>
       <c r="D6">
-        <v>1.064366861219718</v>
+        <v>1.04758427282917</v>
       </c>
       <c r="E6">
-        <v>1.075811200259109</v>
+        <v>1.049753230524393</v>
       </c>
       <c r="F6">
-        <v>1.080431146319158</v>
+        <v>1.055854896179723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045754995545265</v>
+        <v>1.059706170256115</v>
       </c>
       <c r="J6">
-        <v>1.067782494958414</v>
+        <v>1.051336868434594</v>
       </c>
       <c r="K6">
-        <v>1.066722436655787</v>
+        <v>1.056893901436924</v>
       </c>
       <c r="L6">
-        <v>1.078140465739772</v>
+        <v>1.059040250795743</v>
       </c>
       <c r="M6">
-        <v>1.082749959848061</v>
+        <v>1.065078922618728</v>
       </c>
       <c r="N6">
-        <v>1.026204172789195</v>
+        <v>1.020083498667997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063050984257505</v>
+        <v>1.031187385748002</v>
       </c>
       <c r="D7">
-        <v>1.06402847615669</v>
+        <v>1.045989059578066</v>
       </c>
       <c r="E7">
-        <v>1.075390422932652</v>
+        <v>1.047838264273442</v>
       </c>
       <c r="F7">
-        <v>1.080017172561091</v>
+        <v>1.053964514964808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045651032459928</v>
+        <v>1.059054410521099</v>
       </c>
       <c r="J7">
-        <v>1.067454722638002</v>
+        <v>1.049819802662581</v>
       </c>
       <c r="K7">
-        <v>1.066442895689892</v>
+        <v>1.055559572703749</v>
       </c>
       <c r="L7">
-        <v>1.077778028327322</v>
+        <v>1.057388852684769</v>
       </c>
       <c r="M7">
-        <v>1.082394032173015</v>
+        <v>1.063449705859444</v>
       </c>
       <c r="N7">
-        <v>1.026091798902605</v>
+        <v>1.019552027962231</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06122051300592</v>
+        <v>1.022314699651596</v>
       </c>
       <c r="D8">
-        <v>1.062612072175356</v>
+        <v>1.039138838222429</v>
       </c>
       <c r="E8">
-        <v>1.073630671887644</v>
+        <v>1.03962382330123</v>
       </c>
       <c r="F8">
-        <v>1.078285712285573</v>
+        <v>1.045854996867088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045212169450198</v>
+        <v>1.056222153033205</v>
       </c>
       <c r="J8">
-        <v>1.066082123396977</v>
+        <v>1.043294824263852</v>
       </c>
       <c r="K8">
-        <v>1.065271239370365</v>
+        <v>1.04981351602601</v>
       </c>
       <c r="L8">
-        <v>1.076261016722597</v>
+        <v>1.050292536833163</v>
       </c>
       <c r="M8">
-        <v>1.080904071456911</v>
+        <v>1.056447691652074</v>
       </c>
       <c r="N8">
-        <v>1.02562068251487</v>
+        <v>1.017263671539004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057988634559585</v>
+        <v>1.005673928079095</v>
       </c>
       <c r="D9">
-        <v>1.060108426396481</v>
+        <v>1.026305164883828</v>
       </c>
       <c r="E9">
-        <v>1.070525852604753</v>
+        <v>1.024265213682683</v>
       </c>
       <c r="F9">
-        <v>1.075230201729793</v>
+        <v>1.03069128964856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04442249697978</v>
+        <v>1.050788185107038</v>
       </c>
       <c r="J9">
-        <v>1.06365354468553</v>
+        <v>1.03102790410613</v>
       </c>
       <c r="K9">
-        <v>1.063194314277673</v>
+        <v>1.038985403796527</v>
       </c>
       <c r="L9">
-        <v>1.073579768605794</v>
+        <v>1.036976500694446</v>
       </c>
       <c r="M9">
-        <v>1.078269901074075</v>
+        <v>1.043305301462295</v>
       </c>
       <c r="N9">
-        <v>1.024785124336948</v>
+        <v>1.012953187885022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055829480541024</v>
+        <v>0.9937891551110097</v>
       </c>
       <c r="D10">
-        <v>1.058433933930044</v>
+        <v>1.017156391094471</v>
       </c>
       <c r="E10">
-        <v>1.068453100305887</v>
+        <v>1.013333912304272</v>
       </c>
       <c r="F10">
-        <v>1.073189966876898</v>
+        <v>1.019898700407714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043884988596998</v>
+        <v>1.04682889353987</v>
       </c>
       <c r="J10">
-        <v>1.062027641261956</v>
+        <v>1.022251377117459</v>
       </c>
       <c r="K10">
-        <v>1.061801248081167</v>
+        <v>1.031222640038415</v>
       </c>
       <c r="L10">
-        <v>1.071786618724033</v>
+        <v>1.027466521134802</v>
       </c>
       <c r="M10">
-        <v>1.076507748414759</v>
+        <v>1.033917737741192</v>
       </c>
       <c r="N10">
-        <v>1.024224395479185</v>
+        <v>1.009864709502084</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054893392912321</v>
+        <v>0.9884257624045883</v>
       </c>
       <c r="D11">
-        <v>1.057707540215316</v>
+        <v>1.013033626635834</v>
       </c>
       <c r="E11">
-        <v>1.067554839709766</v>
+        <v>1.008411129863792</v>
       </c>
       <c r="F11">
-        <v>1.072305704708891</v>
+        <v>1.015038601103015</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043649601183944</v>
+        <v>1.045024682034031</v>
       </c>
       <c r="J11">
-        <v>1.06132193566563</v>
+        <v>1.018288098105542</v>
       </c>
       <c r="K11">
-        <v>1.061195992735054</v>
+        <v>1.027713863619781</v>
       </c>
       <c r="L11">
-        <v>1.071008775243802</v>
+        <v>1.023176148894276</v>
       </c>
       <c r="M11">
-        <v>1.075743236880316</v>
+        <v>1.029682376805818</v>
       </c>
       <c r="N11">
-        <v>1.023980703581787</v>
+        <v>1.008469253708258</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054545508236429</v>
+        <v>0.9863980504888423</v>
       </c>
       <c r="D12">
-        <v>1.057437522238343</v>
+        <v>1.011476020875722</v>
       </c>
       <c r="E12">
-        <v>1.067221068977438</v>
+        <v>1.006551677941038</v>
       </c>
       <c r="F12">
-        <v>1.071977121507901</v>
+        <v>1.013202879238339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043561769227192</v>
+        <v>1.044340059530148</v>
       </c>
       <c r="J12">
-        <v>1.061059548880696</v>
+        <v>1.016789437272898</v>
       </c>
       <c r="K12">
-        <v>1.060970862795412</v>
+        <v>1.026386612301503</v>
       </c>
       <c r="L12">
-        <v>1.070719635191966</v>
+        <v>1.021554425433576</v>
       </c>
       <c r="M12">
-        <v>1.0754590355298</v>
+        <v>1.028081430160454</v>
       </c>
       <c r="N12">
-        <v>1.023890050134534</v>
+        <v>1.007941492384028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054620138921854</v>
+        <v>0.9868346583920578</v>
       </c>
       <c r="D13">
-        <v>1.057495451255312</v>
+        <v>1.011811354044016</v>
       </c>
       <c r="E13">
-        <v>1.067292669293174</v>
+        <v>1.006951977943911</v>
       </c>
       <c r="F13">
-        <v>1.072047609625463</v>
+        <v>1.013598067915258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043580627542177</v>
+        <v>1.044487584359048</v>
       </c>
       <c r="J13">
-        <v>1.061115843401236</v>
+        <v>1.017112140624946</v>
       </c>
       <c r="K13">
-        <v>1.061019168066852</v>
+        <v>1.026672426263703</v>
       </c>
       <c r="L13">
-        <v>1.070781666484587</v>
+        <v>1.021903599372112</v>
       </c>
       <c r="M13">
-        <v>1.075520008057102</v>
+        <v>1.02842613113702</v>
       </c>
       <c r="N13">
-        <v>1.023909501756353</v>
+        <v>1.008055137607082</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05486464036327</v>
+        <v>0.9882588933356841</v>
       </c>
       <c r="D14">
-        <v>1.057685224607216</v>
+        <v>1.012905421859252</v>
       </c>
       <c r="E14">
-        <v>1.067527252526479</v>
+        <v>1.008258072745536</v>
       </c>
       <c r="F14">
-        <v>1.07227854657448</v>
+        <v>1.014887496072428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043642349107148</v>
+        <v>1.044968391841799</v>
       </c>
       <c r="J14">
-        <v>1.061300251944499</v>
+        <v>1.018164772010351</v>
       </c>
       <c r="K14">
-        <v>1.061177389791199</v>
+        <v>1.027604651941846</v>
       </c>
       <c r="L14">
-        <v>1.070984879234877</v>
+        <v>1.023042683195732</v>
       </c>
       <c r="M14">
-        <v>1.075719749377984</v>
+        <v>1.029550621262038</v>
       </c>
       <c r="N14">
-        <v>1.023973212909893</v>
+        <v>1.008425825402983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.055015261737649</v>
+        <v>0.9891316143313003</v>
       </c>
       <c r="D15">
-        <v>1.05780212322452</v>
+        <v>1.01357597411118</v>
       </c>
       <c r="E15">
-        <v>1.067671771383926</v>
+        <v>1.009058626725906</v>
       </c>
       <c r="F15">
-        <v>1.072420817236998</v>
+        <v>1.015677842092575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043680324936633</v>
+        <v>1.045262686612099</v>
       </c>
       <c r="J15">
-        <v>1.061413838048212</v>
+        <v>1.018809753497892</v>
       </c>
       <c r="K15">
-        <v>1.061274834084554</v>
+        <v>1.028175798391762</v>
       </c>
       <c r="L15">
-        <v>1.071110056783038</v>
+        <v>1.023740719030421</v>
       </c>
       <c r="M15">
-        <v>1.075842786295915</v>
+        <v>1.030239712261371</v>
       </c>
       <c r="N15">
-        <v>1.024012449469321</v>
+        <v>1.00865294708454</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055891580664584</v>
+        <v>0.9941402916728157</v>
       </c>
       <c r="D16">
-        <v>1.058482114016462</v>
+        <v>1.01742644207687</v>
       </c>
       <c r="E16">
-        <v>1.068512698794529</v>
+        <v>1.013656426999596</v>
       </c>
       <c r="F16">
-        <v>1.073248634627683</v>
+        <v>1.020217114605163</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043900554673004</v>
+        <v>1.046946661028036</v>
       </c>
       <c r="J16">
-        <v>1.062074440900766</v>
+        <v>1.022510804538705</v>
       </c>
       <c r="K16">
-        <v>1.061841373436791</v>
+        <v>1.031452251847246</v>
       </c>
       <c r="L16">
-        <v>1.071838211814117</v>
+        <v>1.027747445014329</v>
       </c>
       <c r="M16">
-        <v>1.076558454823188</v>
+        <v>1.034195056396605</v>
       </c>
       <c r="N16">
-        <v>1.024240549589027</v>
+        <v>1.009956039231482</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056440957793888</v>
+        <v>0.9972220235446213</v>
       </c>
       <c r="D17">
-        <v>1.058908296367651</v>
+        <v>1.019797219184157</v>
       </c>
       <c r="E17">
-        <v>1.069039987460083</v>
+        <v>1.016488141556195</v>
       </c>
       <c r="F17">
-        <v>1.073767677945398</v>
+        <v>1.02301285302698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044037990342848</v>
+        <v>1.04797828129153</v>
       </c>
       <c r="J17">
-        <v>1.062488367298101</v>
+        <v>1.02478737545789</v>
       </c>
       <c r="K17">
-        <v>1.062196197778074</v>
+        <v>1.033466812616308</v>
       </c>
       <c r="L17">
-        <v>1.072294586945261</v>
+        <v>1.03021312085978</v>
       </c>
       <c r="M17">
-        <v>1.077006973497808</v>
+        <v>1.036629066408758</v>
       </c>
       <c r="N17">
-        <v>1.024383390861576</v>
+        <v>1.010757407307313</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056761288681171</v>
+        <v>0.9989987995863185</v>
       </c>
       <c r="D18">
-        <v>1.059156753489331</v>
+        <v>1.021164638071748</v>
       </c>
       <c r="E18">
-        <v>1.069347474446021</v>
+        <v>1.018121732519033</v>
       </c>
       <c r="F18">
-        <v>1.074070347650379</v>
+        <v>1.024625708556394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044117899364046</v>
+        <v>1.048571413128005</v>
       </c>
       <c r="J18">
-        <v>1.06272964187315</v>
+        <v>1.026099684499859</v>
       </c>
       <c r="K18">
-        <v>1.062402963394917</v>
+        <v>1.034627775997682</v>
       </c>
       <c r="L18">
-        <v>1.072560648272031</v>
+        <v>1.031634824759164</v>
       </c>
       <c r="M18">
-        <v>1.077268443586997</v>
+        <v>1.038032490450655</v>
       </c>
       <c r="N18">
-        <v>1.024466621726196</v>
+        <v>1.011219274540325</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05687049449894</v>
+        <v>0.9996011973210217</v>
       </c>
       <c r="D19">
-        <v>1.059241449371782</v>
+        <v>1.021628334828707</v>
       </c>
       <c r="E19">
-        <v>1.06945230756653</v>
+        <v>1.018675744498329</v>
       </c>
       <c r="F19">
-        <v>1.074173536855376</v>
+        <v>1.025172690994177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044145103089666</v>
+        <v>1.048772225449917</v>
       </c>
       <c r="J19">
-        <v>1.062811882966138</v>
+        <v>1.026544564009537</v>
       </c>
       <c r="K19">
-        <v>1.062473431743301</v>
+        <v>1.035021294464401</v>
       </c>
       <c r="L19">
-        <v>1.072651345615001</v>
+        <v>1.032116855208317</v>
       </c>
       <c r="M19">
-        <v>1.077357573956394</v>
+        <v>1.038508319027903</v>
       </c>
       <c r="N19">
-        <v>1.024494986747215</v>
+        <v>1.011375836536477</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056382026403594</v>
+        <v>0.9968935484432995</v>
       </c>
       <c r="D20">
-        <v>1.058862584284209</v>
+        <v>1.019544465411395</v>
       </c>
       <c r="E20">
-        <v>1.068983421815642</v>
+        <v>1.016186214361998</v>
       </c>
       <c r="F20">
-        <v>1.073711997765438</v>
+        <v>1.022714759631455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044023271171343</v>
+        <v>1.047868493821871</v>
       </c>
       <c r="J20">
-        <v>1.062443973668245</v>
+        <v>1.024544746030979</v>
       </c>
       <c r="K20">
-        <v>1.062158148929823</v>
+        <v>1.033252139541249</v>
       </c>
       <c r="L20">
-        <v>1.072245636164399</v>
+        <v>1.029950297010103</v>
       </c>
       <c r="M20">
-        <v>1.076958866539072</v>
+        <v>1.036369620034693</v>
       </c>
       <c r="N20">
-        <v>1.024368074253674</v>
+        <v>1.010672007668487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054792645800021</v>
+        <v>0.9878404966931597</v>
       </c>
       <c r="D21">
-        <v>1.057629346717958</v>
+        <v>1.012583987360097</v>
       </c>
       <c r="E21">
-        <v>1.067458176872713</v>
+        <v>1.007874334783557</v>
       </c>
       <c r="F21">
-        <v>1.072210544993294</v>
+        <v>1.014508653226694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043624184660208</v>
+        <v>1.044827213445872</v>
       </c>
       <c r="J21">
-        <v>1.061245955333112</v>
+        <v>1.017855548008249</v>
       </c>
       <c r="K21">
-        <v>1.061130806053725</v>
+        <v>1.027330810819154</v>
       </c>
       <c r="L21">
-        <v>1.070925044097071</v>
+        <v>1.022708045511017</v>
       </c>
       <c r="M21">
-        <v>1.075660936857657</v>
+        <v>1.029220271219403</v>
       </c>
       <c r="N21">
-        <v>1.023954455312226</v>
+        <v>1.008316933299513</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053792294504388</v>
+        <v>0.9819413520978154</v>
       </c>
       <c r="D22">
-        <v>1.056852784975974</v>
+        <v>1.008054748932453</v>
       </c>
       <c r="E22">
-        <v>1.066498516951738</v>
+        <v>1.002468051408502</v>
       </c>
       <c r="F22">
-        <v>1.071265774193293</v>
+        <v>1.009171490199799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043370956229322</v>
+        <v>1.042830826754471</v>
       </c>
       <c r="J22">
-        <v>1.060491228705059</v>
+        <v>1.013495141536225</v>
       </c>
       <c r="K22">
-        <v>1.060483072866789</v>
+        <v>1.023468310814176</v>
       </c>
       <c r="L22">
-        <v>1.070093493111828</v>
+        <v>1.017990773760893</v>
       </c>
       <c r="M22">
-        <v>1.074843557294713</v>
+        <v>1.024563421596868</v>
       </c>
       <c r="N22">
-        <v>1.02369361247188</v>
+        <v>1.006781257560688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054322700623438</v>
+        <v>0.9850892875507486</v>
       </c>
       <c r="D23">
-        <v>1.057264567752611</v>
+        <v>1.010471007338483</v>
       </c>
       <c r="E23">
-        <v>1.067007316698387</v>
+        <v>1.005352007537967</v>
       </c>
       <c r="F23">
-        <v>1.071766687504105</v>
+        <v>1.012018536619928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043505416600109</v>
+        <v>1.043897484056955</v>
       </c>
       <c r="J23">
-        <v>1.060891465702408</v>
+        <v>1.015822078433744</v>
       </c>
       <c r="K23">
-        <v>1.060826620426958</v>
+        <v>1.025529772374186</v>
       </c>
       <c r="L23">
-        <v>1.070534433242217</v>
+        <v>1.020507808230344</v>
       </c>
       <c r="M23">
-        <v>1.07527699216392</v>
+        <v>1.027048219040409</v>
       </c>
       <c r="N23">
-        <v>1.023831964973168</v>
+        <v>1.007600810510331</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056408655306347</v>
+        <v>0.9970420361008442</v>
       </c>
       <c r="D24">
-        <v>1.058883240001888</v>
+        <v>1.019658721451772</v>
       </c>
       <c r="E24">
-        <v>1.069008981616419</v>
+        <v>1.016322698018706</v>
       </c>
       <c r="F24">
-        <v>1.073737157487387</v>
+        <v>1.022849510194535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044029922918831</v>
+        <v>1.047918128542609</v>
       </c>
       <c r="J24">
-        <v>1.062464033738042</v>
+        <v>1.024654427809625</v>
       </c>
       <c r="K24">
-        <v>1.062175342176369</v>
+        <v>1.033349184491622</v>
       </c>
       <c r="L24">
-        <v>1.072267755330761</v>
+        <v>1.030069106571399</v>
       </c>
       <c r="M24">
-        <v>1.076980604445431</v>
+        <v>1.036486902875218</v>
       </c>
       <c r="N24">
-        <v>1.024374995435258</v>
+        <v>1.010710613211305</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058824936007658</v>
+        <v>1.010106247596905</v>
       </c>
       <c r="D25">
-        <v>1.060756616718505</v>
+        <v>1.029721123099862</v>
       </c>
       <c r="E25">
-        <v>1.071329011338655</v>
+        <v>1.028349993742299</v>
       </c>
       <c r="F25">
-        <v>1.076020676300149</v>
+        <v>1.034724299980512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044628590173161</v>
+        <v>1.052249256010789</v>
       </c>
       <c r="J25">
-        <v>1.064282582849619</v>
+        <v>1.03429821811981</v>
       </c>
       <c r="K25">
-        <v>1.063732726061513</v>
+        <v>1.041874934028753</v>
       </c>
       <c r="L25">
-        <v>1.074273915445908</v>
+        <v>1.040523594504975</v>
       </c>
       <c r="M25">
-        <v>1.078951946177599</v>
+        <v>1.046806461687138</v>
       </c>
       <c r="N25">
-        <v>1.025001781724772</v>
+        <v>1.014103201633741</v>
       </c>
     </row>
   </sheetData>
